--- a/input/mappings/scaling/Argentina_scaling_mapping.xlsx
+++ b/input/mappings/scaling/Argentina_scaling_mapping.xlsx
@@ -11,7 +11,7 @@
     <sheet name="year" sheetId="2" r:id="rId2"/>
     <sheet name="method" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="111">
   <si>
     <t>Energy</t>
   </si>
@@ -452,8 +452,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="101">
+  <cellStyleXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -570,7 +572,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="101">
+  <cellStyles count="103">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -621,6 +623,7 @@
     <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -671,6 +674,7 @@
     <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -941,7 +945,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -952,7 +956,7 @@
   <dimension ref="A1:E102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:B24"/>
+      <selection activeCell="B24" sqref="B24:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1178,12 +1182,17 @@
         <v>55</v>
       </c>
     </row>
+    <row r="25" spans="1:3">
+      <c r="B25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" t="s">
+        <v>56</v>
+      </c>
+    </row>
     <row r="26" spans="1:3">
       <c r="A26" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="C26" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:3">

--- a/input/mappings/scaling/Argentina_scaling_mapping.xlsx
+++ b/input/mappings/scaling/Argentina_scaling_mapping.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26621"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26722"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="3060" yWindow="0" windowWidth="20720" windowHeight="14400"/>
@@ -326,9 +326,6 @@
     <t>2D_Paint-application</t>
   </si>
   <si>
-    <t>2D3_Chemical-product-use</t>
-  </si>
-  <si>
     <t>1A3dii_Domestic-naviation</t>
   </si>
   <si>
@@ -357,6 +354,9 @@
   </si>
   <si>
     <t>1A4_Residential-Commerical-Other</t>
+  </si>
+  <si>
+    <t>2D3_Chemical-products-manufacture-processing</t>
   </si>
 </sst>
 </file>
@@ -945,7 +945,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -955,8 +955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:B25"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1067,7 +1067,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C13" t="s">
         <v>49</v>
@@ -1078,7 +1078,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C14" t="s">
         <v>50</v>
@@ -1089,7 +1089,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C15" t="s">
         <v>51</v>
@@ -1100,7 +1100,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C16" t="s">
         <v>52</v>
@@ -1111,7 +1111,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C17" t="s">
         <v>91</v>
@@ -1122,7 +1122,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C18" t="s">
         <v>53</v>
@@ -1131,7 +1131,7 @@
     <row r="19" spans="1:3">
       <c r="A19" s="4"/>
       <c r="B19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C19" t="s">
         <v>68</v>
@@ -1140,7 +1140,7 @@
     <row r="20" spans="1:3">
       <c r="A20" s="4"/>
       <c r="B20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C20" t="s">
         <v>54</v>
@@ -1149,7 +1149,7 @@
     <row r="21" spans="1:3">
       <c r="A21" s="4"/>
       <c r="B21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C21" t="s">
         <v>69</v>
@@ -1158,7 +1158,7 @@
     <row r="22" spans="1:3">
       <c r="A22" s="4"/>
       <c r="B22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C22" t="s">
         <v>70</v>
@@ -1167,7 +1167,7 @@
     <row r="23" spans="1:3">
       <c r="A23" s="4"/>
       <c r="B23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C23" t="s">
         <v>92</v>
@@ -1176,7 +1176,7 @@
     <row r="24" spans="1:3">
       <c r="A24" s="7"/>
       <c r="B24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C24" t="s">
         <v>55</v>
@@ -1184,7 +1184,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="B25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C25" t="s">
         <v>56</v>
@@ -1205,10 +1205,10 @@
         <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1280,10 +1280,10 @@
         <v>25</v>
       </c>
       <c r="B39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1310,10 +1310,10 @@
         <v>28</v>
       </c>
       <c r="B43" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C43" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1324,7 +1324,7 @@
         <v>29</v>
       </c>
       <c r="B45" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C45" t="s">
         <v>62</v>
@@ -1349,7 +1349,7 @@
         <v>16</v>
       </c>
       <c r="B48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C48" t="s">
         <v>64</v>
@@ -1570,7 +1570,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="E88" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1586,7 +1586,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="E91" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -1601,22 +1601,22 @@
     </row>
     <row r="94" spans="1:5">
       <c r="E94" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="E95" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="E96" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="97" spans="5:5">
       <c r="E97" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="98" spans="5:5">
@@ -1631,7 +1631,7 @@
     </row>
     <row r="100" spans="5:5">
       <c r="E100" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="101" spans="5:5">

--- a/input/mappings/scaling/Argentina_scaling_mapping.xlsx
+++ b/input/mappings/scaling/Argentina_scaling_mapping.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="111">
   <si>
     <t>Energy</t>
   </si>
@@ -955,8 +955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1204,9 +1204,6 @@
       <c r="A28" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B28" t="s">
-        <v>101</v>
-      </c>
       <c r="C28" t="s">
         <v>101</v>
       </c>
@@ -1218,9 +1215,6 @@
       <c r="A30" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B30" t="s">
-        <v>57</v>
-      </c>
       <c r="C30" t="s">
         <v>57</v>
       </c>
@@ -1268,9 +1262,6 @@
       <c r="A38" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B38" t="s">
-        <v>60</v>
-      </c>
       <c r="C38" t="s">
         <v>60</v>
       </c>
@@ -1278,9 +1269,6 @@
     <row r="39" spans="1:3">
       <c r="A39" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="B39" t="s">
-        <v>100</v>
       </c>
       <c r="C39" t="s">
         <v>100</v>

--- a/input/mappings/scaling/Argentina_scaling_mapping.xlsx
+++ b/input/mappings/scaling/Argentina_scaling_mapping.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26722"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26929"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="0" windowWidth="20720" windowHeight="14400"/>
+    <workbookView xWindow="3060" yWindow="0" windowWidth="36120" windowHeight="20580" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="1" r:id="rId1"/>
@@ -101,9 +101,6 @@
     <t>Marine international (1A3di_International-shipping)</t>
   </si>
   <si>
-    <t>Domestic navigation (1A3dii_Domestic-naviation [shipping])</t>
-  </si>
-  <si>
     <t>Other type of transportation (1A3eii_Other-transp)</t>
   </si>
   <si>
@@ -326,9 +323,6 @@
     <t>2D_Paint-application</t>
   </si>
   <si>
-    <t>1A3dii_Domestic-naviation</t>
-  </si>
-  <si>
     <t>1A3ai_International-aviation</t>
   </si>
   <si>
@@ -357,6 +351,12 @@
   </si>
   <si>
     <t>2D3_Chemical-products-manufacture-processing</t>
+  </si>
+  <si>
+    <t>Domestic navigation (1A3dii_Domestic-navigation [shipping])</t>
+  </si>
+  <si>
+    <t>1A3dii_Domestic-navigation</t>
   </si>
 </sst>
 </file>
@@ -945,7 +945,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -955,8 +955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -967,13 +967,13 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" t="s">
         <v>89</v>
-      </c>
-      <c r="B1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -987,10 +987,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -998,10 +998,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1009,10 +1009,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1020,10 +1020,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1031,10 +1031,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1067,10 +1067,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1078,10 +1078,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1089,10 +1089,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1100,10 +1100,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1111,10 +1111,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1122,72 +1122,72 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="4"/>
       <c r="B19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="4"/>
       <c r="B20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="4"/>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="4"/>
       <c r="B22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="4"/>
       <c r="B23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="7"/>
       <c r="B24" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="B25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1205,7 +1205,7 @@
         <v>19</v>
       </c>
       <c r="C28" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1216,7 +1216,7 @@
         <v>20</v>
       </c>
       <c r="C30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1227,10 +1227,10 @@
         <v>21</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1247,10 +1247,10 @@
         <v>22</v>
       </c>
       <c r="B36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1263,26 +1263,26 @@
         <v>24</v>
       </c>
       <c r="C38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="8" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="C39" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1290,18 +1290,18 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B43" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C43" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1309,13 +1309,13 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B45" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1323,13 +1323,13 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1337,41 +1337,41 @@
         <v>16</v>
       </c>
       <c r="B48" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1379,7 +1379,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1392,48 +1392,48 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B58" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C58" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1443,38 +1443,38 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="7"/>
       <c r="E73" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1482,154 +1482,154 @@
     </row>
     <row r="75" spans="1:5">
       <c r="E75" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="7"/>
       <c r="E76" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="E77" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="7"/>
       <c r="E78" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="7"/>
       <c r="E79" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="7"/>
       <c r="E80" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="7"/>
       <c r="E81" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="7"/>
       <c r="E82" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="7"/>
       <c r="E83" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="7"/>
       <c r="E84" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="7"/>
       <c r="E85" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="7"/>
       <c r="E86" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="7"/>
       <c r="E87" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="E88" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="7"/>
       <c r="E89" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="E90" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="E91" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="E92" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="E93" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="E94" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="E95" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="E96" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="97" spans="5:5">
       <c r="E97" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="98" spans="5:5">
       <c r="E98" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="99" spans="5:5">
       <c r="E99" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="100" spans="5:5">
       <c r="E100" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="101" spans="5:5">
       <c r="E101" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="102" spans="5:5">
       <c r="E102" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1655,30 +1655,30 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15">
       <c r="A1" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>82</v>
-      </c>
       <c r="C1" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" t="s">
         <v>87</v>
-      </c>
-      <c r="D1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1695,7 +1695,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
@@ -1703,36 +1703,36 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" t="s">
         <v>81</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>82</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>83</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>84</v>
-      </c>
-      <c r="E1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
